--- a/data/trans_bre/IP18A04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A04-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,15 +539,13 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +567,17 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
           <t>2015</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
         </is>
       </c>
     </row>
@@ -604,8 +590,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -635,27 +619,17 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,5</t>
+          <t>78,79%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>78,79%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
           <t>6,64%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-8,42%</t>
         </is>
       </c>
     </row>
@@ -683,34 +657,24 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-24,01; 15,65</t>
+          <t>3,37; 233,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 233,56</t>
+          <t>-30,0; 81,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-30,0; 81,8</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
           <t>-33,76; 80,05</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-49,96; 49,78</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-53,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,15%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,13%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-8,54%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,96%</t>
+          <t>-16,24%</t>
         </is>
       </c>
     </row>
@@ -768,49 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 4,0</t>
+          <t>-10,88; -1,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 4,49</t>
+          <t>-3,87; 7,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 3,76</t>
+          <t>-5,96; 2,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,93; 18,63</t>
+          <t>-73,52; -14,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-41,21; 37,11</t>
+          <t>-24,82; 68,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-37,16; 42,98</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-41,93; 41,77</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-34,88; 52,19</t>
+          <t>-52,85; 40,4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,29</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,21</t>
+          <t>-13,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-53,03%</t>
+          <t>-7,13%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-16,24%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>27,49%</t>
+          <t>-8,54%</t>
         </is>
       </c>
     </row>
@@ -868,42 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,88; -1,83</t>
+          <t>-6,7; 4,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 7,27</t>
+          <t>-5,98; 4,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 2,5</t>
+          <t>-5,97; 3,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 29,27</t>
+          <t>-41,21; 37,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-73,52; -14,22</t>
+          <t>-37,16; 42,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,82; 68,72</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-52,85; 40,4</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-18,69; 113,87</t>
+          <t>-41,93; 41,77</t>
         </is>
       </c>
     </row>
@@ -935,27 +859,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>-11,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,58%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
           <t>-6,23%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>5,9%</t>
         </is>
       </c>
     </row>
@@ -983,37 +897,27 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 13,67</t>
+          <t>-33,15; 14,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 14,53</t>
+          <t>-16,84; 32,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 32,3</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
           <t>-30,29; 21,53</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-17,78; 34,96</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/IP18A04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A04-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>78,79%</t>
+          <t>20,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>-22,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>-9,26%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 8,7</t>
+          <t>-4,26; 9,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 6,07</t>
+          <t>-8,85; 3,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 5,89</t>
+          <t>-6,55; 4,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 233,56</t>
+          <t>-40,23; 184,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-30,0; 81,8</t>
+          <t>-55,95; 39,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,76; 80,05</t>
+          <t>-51,83; 71,16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-6,29</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-53,03%</t>
+          <t>-9,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>41,29%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,24%</t>
+          <t>2,74%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,88; -1,83</t>
+          <t>-4,6; 2,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 7,27</t>
+          <t>-0,96; 8,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 2,5</t>
+          <t>-4,26; 5,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-73,52; -14,22</t>
+          <t>-50,33; 48,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,82; 68,72</t>
+          <t>-10,23; 118,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,85; 40,4</t>
+          <t>-35,58; 65,12</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-1,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-13,15%</t>
+          <t>-9,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-7,13%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,54%</t>
+          <t>-25,81%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 4,0</t>
+          <t>-7,76; 5,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 4,49</t>
+          <t>-4,76; 8,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 3,76</t>
+          <t>-8,57; 2,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-41,21; 37,11</t>
+          <t>-53,61; 68,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,16; 42,98</t>
+          <t>-28,93; 90,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-41,93; 41,77</t>
+          <t>-60,27; 26,57</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,58%</t>
+          <t>-24,28%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>-17,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,23%</t>
+          <t>10,64%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,127 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 1,31</t>
+          <t>-9,91; 2,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 3,48</t>
+          <t>-9,22; 3,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 1,98</t>
+          <t>-5,18; 6,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 14,53</t>
+          <t>-54,15; 18,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 32,3</t>
+          <t>-50,1; 33,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,29; 21,53</t>
+          <t>-43,07; 96,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-11,58%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-6,23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-4,01; 1,49</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 3,13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,31; 1,95</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-33,53; 16,26</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-20,31; 28,14</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-28,23; 22,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/IP18A04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A04-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 9,0</t>
+          <t>-4,02; 8,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 3,7</t>
+          <t>-8,9; 3,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 4,71</t>
+          <t>-7,08; 4,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,23; 184,91</t>
+          <t>-38,07; 149,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-55,95; 39,91</t>
+          <t>-58,54; 40,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-51,83; 71,16</t>
+          <t>-53,38; 78,66</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 2,81</t>
+          <t>-4,41; 3,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 8,91</t>
+          <t>-0,78; 9,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 5,12</t>
+          <t>-4,14; 5,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-50,33; 48,11</t>
+          <t>-46,73; 63,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 118,32</t>
+          <t>-9,68; 117,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,58; 65,12</t>
+          <t>-34,45; 65,62</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 5,44</t>
+          <t>-7,71; 5,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 8,65</t>
+          <t>-5,71; 8,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 2,48</t>
+          <t>-8,68; 2,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-53,61; 68,22</t>
+          <t>-52,04; 74,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-28,93; 90,13</t>
+          <t>-32,74; 76,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-60,27; 26,57</t>
+          <t>-56,4; 28,35</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 2,1</t>
+          <t>-10,64; 1,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 3,77</t>
+          <t>-9,34; 3,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 6,65</t>
+          <t>-4,8; 6,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-54,15; 18,13</t>
+          <t>-55,56; 14,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,1; 33,49</t>
+          <t>-50,62; 34,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,07; 96,03</t>
+          <t>-39,05; 102,51</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 1,49</t>
+          <t>-3,82; 1,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 3,13</t>
+          <t>-2,58; 3,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 1,95</t>
+          <t>-3,15; 2,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-33,53; 16,26</t>
+          <t>-32,24; 17,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 28,14</t>
+          <t>-18,78; 31,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 22,46</t>
+          <t>-27,59; 25,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A04-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP18A04-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 8,07</t>
+          <t>-4,14; 8,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 3,45</t>
+          <t>-9,2; 2,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 4,78</t>
+          <t>-7,18; 5,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-38,07; 149,4</t>
+          <t>-38,29; 156,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-58,54; 40,68</t>
+          <t>-58,49; 36,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-53,38; 78,66</t>
+          <t>-54,83; 90,68</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 3,32</t>
+          <t>-4,64; 3,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 9,13</t>
+          <t>-0,9; 8,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 5,11</t>
+          <t>-4,69; 4,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-46,73; 63,43</t>
+          <t>-49,05; 55,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 117,58</t>
+          <t>-7,52; 113,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,45; 65,62</t>
+          <t>-38,64; 63,89</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 5,99</t>
+          <t>-8,11; 5,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 8,32</t>
+          <t>-5,42; 7,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 2,28</t>
+          <t>-8,35; 2,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-52,04; 74,62</t>
+          <t>-52,54; 60,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,74; 76,03</t>
+          <t>-31,23; 71,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-56,4; 28,35</t>
+          <t>-58,96; 30,89</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 1,7</t>
+          <t>-9,7; 1,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 3,88</t>
+          <t>-9,15; 4,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 6,97</t>
+          <t>-4,72; 6,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-55,56; 14,76</t>
+          <t>-53,06; 17,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,62; 34,17</t>
+          <t>-48,07; 36,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,05; 102,51</t>
+          <t>-38,71; 105,31</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,82; 1,61</t>
+          <t>-4,0; 1,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 3,51</t>
+          <t>-2,32; 3,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 2,17</t>
+          <t>-3,54; 1,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 17,78</t>
+          <t>-33,15; 14,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 31,98</t>
+          <t>-16,84; 32,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-27,59; 25,55</t>
+          <t>-30,29; 21,53</t>
         </is>
       </c>
     </row>
